--- a/tables/accuracy.xlsx
+++ b/tables/accuracy.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunfan.yang/dev/cskg-report/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E10DD2-EC30-764F-AE78-288590C9AFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CC4118-26AA-2546-923B-9D63BAB9D112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{B4D90030-F04D-3241-A149-D0464EF31C41}"/>
+    <workbookView xWindow="1820" yWindow="-22280" windowWidth="28800" windowHeight="16280" xr2:uid="{B4D90030-F04D-3241-A149-D0464EF31C41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>Precision</t>
   </si>
@@ -83,79 +84,7 @@
     <t>Instantiation</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>91.22%</t>
-  </si>
-  <si>
-    <t>87.93%</t>
-  </si>
-  <si>
-    <t>85.02%</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>82.62%</t>
-  </si>
-  <si>
-    <t>89.02%</t>
-  </si>
-  <si>
-    <t>87.3%</t>
-  </si>
-  <si>
-    <t>83.1%</t>
-  </si>
-  <si>
-    <t>79%</t>
-  </si>
-  <si>
-    <t>81.6%</t>
-  </si>
-  <si>
-    <t>82.28%</t>
-  </si>
-  <si>
-    <t>92.5%</t>
-  </si>
-  <si>
-    <t>98.4%</t>
-  </si>
-  <si>
-    <t>89.1%</t>
-  </si>
-  <si>
-    <t>86.46%</t>
-  </si>
-  <si>
-    <t>95.28%</t>
-  </si>
-  <si>
-    <t>93.61%</t>
-  </si>
-  <si>
-    <t>91.89%</t>
-  </si>
-  <si>
-    <t>88.02%</t>
-  </si>
-  <si>
-    <t>87.98%</t>
-  </si>
-  <si>
-    <t>80.95%</t>
-  </si>
-  <si>
-    <t>82.49%</t>
-  </si>
-  <si>
-    <t>94.90%</t>
-  </si>
-  <si>
-    <t>87.47%</t>
+    <t>Samples</t>
   </si>
 </sst>
 </file>
@@ -198,10 +127,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,7 +469,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,154 +495,516 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>91.22</v>
+      </c>
+      <c r="D3">
+        <v>95.40843008053551</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>87.929999999999993</v>
+      </c>
+      <c r="D4">
+        <v>93.577395838876171</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>33</v>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>34</v>
+      <c r="B7">
+        <v>95</v>
+      </c>
+      <c r="C7">
+        <v>82.62</v>
+      </c>
+      <c r="D7">
+        <v>88.378560972863411</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>35</v>
+      <c r="B8">
+        <v>89.02</v>
+      </c>
+      <c r="C8">
+        <v>87.3</v>
+      </c>
+      <c r="D8">
+        <v>88.151610707803997</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>36</v>
+      <c r="B9">
+        <v>83.1</v>
+      </c>
+      <c r="C9">
+        <v>89</v>
+      </c>
+      <c r="D9">
+        <v>85.948866937826836</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>37</v>
+      <c r="B10">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="C10">
+        <v>82.28</v>
+      </c>
+      <c r="D10">
+        <v>81.93858921161825</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>38</v>
+      <c r="B11">
+        <v>92.5</v>
+      </c>
+      <c r="C11">
+        <v>98.4</v>
+      </c>
+      <c r="D11">
+        <v>95.358826610790999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
+      <c r="B12">
+        <v>89.1</v>
+      </c>
+      <c r="C12">
+        <v>86.460000000000008</v>
+      </c>
+      <c r="D12">
+        <v>87.760150375939844</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3548477-1182-FA45-A3C9-4A9A8209BD73}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <f>2*(C2*D2)/(C2+D2)</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>C2*100</f>
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:I2" si="0">D2*100</f>
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>105</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.91220000000000001</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E12" si="1">2*(C3*D3)/(C3+D3)</f>
+        <v>0.95408430080535511</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G12" si="2">C3*100</f>
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H12" si="3">D3*100</f>
+        <v>91.22</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I12" si="4">E3*100</f>
+        <v>95.40843008053551</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.87929999999999997</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.93577395838876176</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>87.929999999999993</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>93.577395838876171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>299</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>205</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>197</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.82620000000000005</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.88378560972863418</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>82.62</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>88.378560972863411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.89019999999999999</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.873</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.88151610707803996</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>89.02</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>87.3</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>88.151610707803997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>320</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8594886693782684</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>83.1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>85.948866937826836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>74</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.82279999999999998</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.81938589211618251</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>81.599999999999994</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>82.28</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>81.93858921161825</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.95358826610790992</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>92.5</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>98.4</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>95.358826610790999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>102</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.86460000000000004</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.87760150375939849</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>89.1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>86.460000000000008</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>87.760150375939844</v>
       </c>
     </row>
   </sheetData>

--- a/tables/accuracy.xlsx
+++ b/tables/accuracy.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunfan.yang/dev/cskg-report/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CC4118-26AA-2546-923B-9D63BAB9D112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB602D30-499A-664C-8EAD-EB3428048620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="-22280" windowWidth="28800" windowHeight="16280" xr2:uid="{B4D90030-F04D-3241-A149-D0464EF31C41}"/>
+    <workbookView xWindow="-3760" yWindow="-19120" windowWidth="28800" windowHeight="16280" xr2:uid="{B4D90030-F04D-3241-A149-D0464EF31C41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>Precision</t>
   </si>
@@ -85,6 +86,24 @@
   </si>
   <si>
     <t>Samples</t>
+  </si>
+  <si>
+    <t>Smell</t>
+  </si>
+  <si>
+    <t>Speculative Generality</t>
+  </si>
+  <si>
+    <t>Base Class depends on Subclass</t>
+  </si>
+  <si>
+    <t>Data Clumps</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
   </si>
 </sst>
 </file>
@@ -466,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC8B4C3-5723-A144-9F52-EC9BBC264DAE}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,172 +496,100 @@
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>91.22</v>
-      </c>
-      <c r="D3">
-        <v>95.40843008053551</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>84.73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>87.929999999999993</v>
-      </c>
-      <c r="D4">
-        <v>93.577395838876171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>79.320000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
         <v>100</v>
       </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
         <v>100</v>
       </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>95</v>
-      </c>
-      <c r="C7">
-        <v>82.62</v>
-      </c>
-      <c r="D7">
-        <v>88.378560972863411</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>87.22999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
         <v>89.02</v>
       </c>
-      <c r="C8">
-        <v>87.3</v>
-      </c>
-      <c r="D8">
-        <v>88.151610707803997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>83.1</v>
-      </c>
-      <c r="C9">
-        <v>89</v>
-      </c>
-      <c r="D9">
-        <v>85.948866937826836</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>66.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10">
         <v>81.599999999999994</v>
       </c>
-      <c r="C10">
-        <v>82.28</v>
-      </c>
-      <c r="D10">
-        <v>81.93858921161825</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>92.5</v>
-      </c>
-      <c r="C11">
-        <v>98.4</v>
-      </c>
-      <c r="D11">
-        <v>95.358826610790999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12">
-        <v>89.1</v>
-      </c>
-      <c r="C12">
-        <v>86.460000000000008</v>
-      </c>
-      <c r="D12">
-        <v>87.760150375939844</v>
+        <v>68.400000000000006</v>
       </c>
     </row>
   </sheetData>
@@ -651,14 +598,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3548477-1182-FA45-A3C9-4A9A8209BD73}">
-  <dimension ref="A1:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD60873-776C-4C4C-9CA3-977341958B38}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>73.22</v>
+      </c>
+      <c r="C2">
+        <v>83.874000000000009</v>
+      </c>
+      <c r="D2">
+        <v>78.185726762320655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>69.399999999999991</v>
+      </c>
+      <c r="C4">
+        <v>75.22</v>
+      </c>
+      <c r="D4">
+        <v>72.192891716221808</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3548477-1182-FA45-A3C9-4A9A8209BD73}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -668,14 +692,10 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -687,24 +707,19 @@
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <f>2*(C2*D2)/(C2+D2)</f>
-        <v>1</v>
-      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2"/>
       <c r="G2">
         <f>C2*100</f>
         <v>100</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:I2" si="0">D2*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -715,26 +730,21 @@
         <v>105</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.91220000000000001</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E12" si="1">2*(C3*D3)/(C3+D3)</f>
-        <v>0.95408430080535511</v>
-      </c>
+        <v>0.84730000000000005</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="G3">
-        <f t="shared" ref="G3:G12" si="2">C3*100</f>
-        <v>100</v>
+        <f t="shared" ref="G3:G12" si="1">C3*100</f>
+        <v>84.73</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H12" si="3">D3*100</f>
-        <v>91.22</v>
+        <f t="shared" ref="H3:H12" si="2">D3*100</f>
+        <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I12" si="4">E3*100</f>
-        <v>95.40843008053551</v>
+        <f t="shared" ref="I3:I12" si="3">E3*100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -745,26 +755,21 @@
         <v>80</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.87929999999999997</v>
-      </c>
-      <c r="E4" s="2">
+        <v>0.79320000000000002</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4">
         <f t="shared" si="1"/>
-        <v>0.93577395838876176</v>
-      </c>
-      <c r="G4">
+        <v>79.320000000000007</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="3"/>
-        <v>87.929999999999993</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="4"/>
-        <v>93.577395838876171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -777,24 +782,19 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="G5">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="4"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -807,24 +807,19 @@
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="G6">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="4"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -835,26 +830,21 @@
         <v>197</v>
       </c>
       <c r="C7" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.82620000000000005</v>
-      </c>
-      <c r="E7" s="2">
+        <v>0.87229999999999996</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7">
         <f t="shared" si="1"/>
-        <v>0.88378560972863418</v>
-      </c>
-      <c r="G7">
+        <v>87.22999999999999</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="3"/>
-        <v>82.62</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="4"/>
-        <v>88.378560972863411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -867,24 +857,19 @@
       <c r="C8" s="2">
         <v>0.89019999999999999</v>
       </c>
-      <c r="D8" s="2">
-        <v>0.873</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8">
         <f t="shared" si="1"/>
-        <v>0.88151610707803996</v>
-      </c>
-      <c r="G8">
+        <v>89.02</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="2"/>
-        <v>89.02</v>
-      </c>
-      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="3"/>
-        <v>87.3</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="4"/>
-        <v>88.151610707803997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -895,26 +880,21 @@
         <v>320</v>
       </c>
       <c r="C9" s="2">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.89</v>
-      </c>
-      <c r="E9" s="2">
+        <v>0.6653</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="G9">
         <f t="shared" si="1"/>
-        <v>0.8594886693782684</v>
-      </c>
-      <c r="G9">
+        <v>66.53</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="2"/>
-        <v>83.1</v>
-      </c>
-      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="3"/>
-        <v>89</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="4"/>
-        <v>85.948866937826836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -927,24 +907,19 @@
       <c r="C10" s="2">
         <v>0.81599999999999995</v>
       </c>
-      <c r="D10" s="2">
-        <v>0.82279999999999998</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10">
         <f t="shared" si="1"/>
-        <v>0.81938589211618251</v>
-      </c>
-      <c r="G10">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="2"/>
-        <v>81.599999999999994</v>
-      </c>
-      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="3"/>
-        <v>82.28</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="4"/>
-        <v>81.93858921161825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -955,26 +930,21 @@
         <v>20</v>
       </c>
       <c r="C11" s="2">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="E11" s="2">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11">
         <f t="shared" si="1"/>
-        <v>0.95358826610790992</v>
-      </c>
-      <c r="G11">
+        <v>82.3</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="2"/>
-        <v>92.5</v>
-      </c>
-      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="3"/>
-        <v>98.4</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="4"/>
-        <v>95.358826610790999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -985,26 +955,127 @@
         <v>102</v>
       </c>
       <c r="C12" s="2">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.86460000000000004</v>
-      </c>
-      <c r="E12" s="2">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12">
         <f t="shared" si="1"/>
-        <v>0.87760150375939849</v>
-      </c>
-      <c r="G12">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="2"/>
-        <v>89.1</v>
-      </c>
-      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="3"/>
-        <v>86.460000000000008</v>
-      </c>
-      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.73219999999999996</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.83874000000000004</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" ref="E16:E18" si="4">2*(C16*D16)/(C16+D16)</f>
+        <v>0.78185726762320651</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16" si="5">C16*100</f>
+        <v>73.22</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16" si="6">D16*100</f>
+        <v>83.874000000000009</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ref="I16" si="7">E16*100</f>
+        <v>78.185726762320655</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="2" t="str">
+        <f t="shared" ref="G17:G18" si="8">C17</f>
+        <v>-</v>
+      </c>
+      <c r="H17" s="2" t="str">
+        <f t="shared" ref="H17:H18" si="9">D17</f>
+        <v>-</v>
+      </c>
+      <c r="I17" s="2" t="str">
+        <f t="shared" ref="I17:I18" si="10">E17</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.75219999999999998</v>
+      </c>
+      <c r="E18" s="2">
         <f t="shared" si="4"/>
-        <v>87.760150375939844</v>
+        <v>0.72192891716221808</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18" si="11">C18*100</f>
+        <v>69.399999999999991</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18" si="12">D18*100</f>
+        <v>75.22</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18" si="13">E18*100</f>
+        <v>72.192891716221808</v>
       </c>
     </row>
   </sheetData>
